--- a/tables/TableS2_prey_stock_summary.xlsx
+++ b/tables/TableS2_prey_stock_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{14DD71C4-0C2B-884E-A9F3-C5704F37657E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA20C17E-0D9A-5148-823C-1AE751C2B245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS2_prey_stock_summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Atlantic herring (Clupea harengus)</t>
   </si>
@@ -89,12 +89,39 @@
   </si>
   <si>
     <t>USA/Canada West (n=4)</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Lesser sand-eel (Ammodytes spp.)</t>
+  </si>
+  <si>
+    <t>Humboldt Current</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>European anchovy (Engraulis encrasicolus)</t>
+  </si>
+  <si>
+    <t>US/Canada East Coast</t>
+  </si>
+  <si>
+    <t>US/Canada West Coast</t>
+  </si>
+  <si>
+    <t>Rockfish spp. (Sebastes spp.)</t>
+  </si>
+  <si>
+    <t>Walleye pollock (Theragra chalcogramma)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -945,198 +972,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="A1:B24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B24">
         <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tables/TableS2_prey_stock_summary.xlsx
+++ b/tables/TableS2_prey_stock_summary.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA20C17E-0D9A-5148-823C-1AE751C2B245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE73171-198E-824A-8610-6A158CF151FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS2_prey_stock_summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Atlantic herring (Clupea harengus)</t>
   </si>
@@ -79,43 +79,25 @@
     <t>Region / prey species</t>
   </si>
   <si>
-    <t>USA/Canada East (n=12)</t>
-  </si>
-  <si>
     <t>Humboldt Current (n=4)</t>
   </si>
   <si>
-    <t>Europe (n=24)</t>
-  </si>
-  <si>
-    <t>USA/Canada West (n=4)</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Lesser sand-eel (Ammodytes spp.)</t>
-  </si>
-  <si>
-    <t>Humboldt Current</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
     <t>European anchovy (Engraulis encrasicolus)</t>
   </si>
   <si>
-    <t>US/Canada East Coast</t>
-  </si>
-  <si>
-    <t>US/Canada West Coast</t>
-  </si>
-  <si>
-    <t>Rockfish spp. (Sebastes spp.)</t>
-  </si>
-  <si>
     <t>Walleye pollock (Theragra chalcogramma)</t>
+  </si>
+  <si>
+    <t>Europe (n=28)</t>
+  </si>
+  <si>
+    <t>South Africa (n=5)</t>
+  </si>
+  <si>
+    <t>US/Canada East Coast (n=13)</t>
+  </si>
+  <si>
+    <t>US/Canada West Coast (n=8)</t>
   </si>
 </sst>
 </file>
@@ -610,14 +592,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -973,392 +953,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>SUM(B3:B10)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
+      <c r="D22">
+        <f>SUM(B17:B22)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
         <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tables/TableS2_prey_stock_summary.xlsx
+++ b/tables/TableS2_prey_stock_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE73171-198E-824A-8610-6A158CF151FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C594AB9B-FDBC-704C-9319-FD7F61A6314E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23440" yWindow="1800" windowWidth="25040" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS2_prey_stock_summary" sheetId="1" r:id="rId1"/>
@@ -956,7 +956,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
